--- a/telemetry_errors.xlsx
+++ b/telemetry_errors.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -482,35 +482,161 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>14:53:39</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Chat JSON mode was enabled, but the model response was not valid draft JSON. Try again or disable the toggle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14:30:21</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chat JSON mode was enabled, but the model response was not valid draft JSON. Try again or disable the toggle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14:17:42</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chat JSON mode was enabled, but the model response was not valid draft JSON. Try again or disable the toggle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>10:43:49</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Chey Wade</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>build</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2025.1.4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>gpt-41</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>MedtronicGPT request failed after refresh (429): Too Many Requests (URL: https://api.gpt.medtronic.com/models/gpt-41) Response body: { "statusCode": 429, "message": "Rate limit is exceeded. Try again in 1 seconds." }</t>
         </is>

--- a/telemetry_errors.xlsx
+++ b/telemetry_errors.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14:53:39</t>
+          <t>09:48:53</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,12 +492,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>chat</t>
+          <t>build</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025.1.5</t>
+          <t>2025.1.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -512,19 +512,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Chat JSON mode was enabled, but the model response was not valid draft JSON. Try again or disable the toggle.</t>
+          <t>MedtronicGPT request failed after refresh (504): Gateway Timeout (URL: https://api.gpt.medtronic.com/models/gpt-41) Response body: stream timeout</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14:30:21</t>
+          <t>09:44:17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -534,12 +534,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>chat</t>
+          <t>build</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025.1.5</t>
+          <t>2025.1.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -554,19 +554,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Chat JSON mode was enabled, but the model response was not valid draft JSON. Try again or disable the toggle.</t>
+          <t>MedtronicGPT request failed (503): Service Unavailable (URL: https://api.gpt.medtronic.com/models/gpt-41) Response body: upstream connect error or disconnect/reset before headers. reset reason: connection termination</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14:17:42</t>
+          <t>09:39:18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>chat</t>
+          <t>build</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025.1.5</t>
+          <t>2025.1.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -596,47 +596,341 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Chat JSON mode was enabled, but the model response was not valid draft JSON. Try again or disable the toggle.</t>
+          <t>Design refinement failed: MedtronicGPT request failed (504): Gateway Timeout (URL: https://api.gpt.medtronic.com/models/gpt-41) Response body: stream timeout</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>08:53:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>gpt-5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>MedtronicGPT request failed (504): Gateway Timeout (URL: https://api.gpt.medtronic.com/models/gpt-5) Response body: stream timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>08:45:52</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>MedtronicGPT request failed (504): Gateway Timeout (URL: https://api.gpt.medtronic.com/models/gpt-41) Response body: stream timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>08:41:21</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>MedtronicGPT request failed (503): Service Unavailable (URL: https://api.gpt.medtronic.com/models/gpt-41) Response body: upstream connect error or disconnect/reset before headers. reset reason: connection termination</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>08:24:45</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>MedtronicGPT request failed after refresh (503): Service Unavailable (URL: https://api.gpt.medtronic.com/models/gpt-41) Response body: upstream connect error or disconnect/reset before headers. reset reason: connection termination</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2025-12-15</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:53:39</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Chat JSON mode was enabled, but the model response was not valid draft JSON. Try again or disable the toggle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14:30:21</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Chat JSON mode was enabled, but the model response was not valid draft JSON. Try again or disable the toggle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14:17:42</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>chat</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025.1.5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Chat JSON mode was enabled, but the model response was not valid draft JSON. Try again or disable the toggle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>10:43:49</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Chey Wade</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>build</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2025.1.4</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>gpt-41</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>MedtronicGPT request failed after refresh (429): Too Many Requests (URL: https://api.gpt.medtronic.com/models/gpt-41) Response body: { "statusCode": 429, "message": "Rate limit is exceeded. Try again in 1 seconds." }</t>
         </is>
